--- a/changeDetectionTrials.xlsx
+++ b/changeDetectionTrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PsychoExps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Desktop\CLC\changeBlind\CLC_PSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C171D9-399F-4872-A960-147982CE9C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E4D2EC-8BE2-40A1-AC0B-F0E8343FF31F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E3F8363-BFA6-4F86-9D55-5FBC43642A1B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{5E3F8363-BFA6-4F86-9D55-5FBC43642A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
   <si>
     <t>Img1</t>
   </si>
@@ -78,6 +67,72 @@
   </si>
   <si>
     <t>right</t>
+  </si>
+  <si>
+    <t>Images\4_1.jpg</t>
+  </si>
+  <si>
+    <t>Images\4_2.jpg</t>
+  </si>
+  <si>
+    <t>Images\5_1.jpg</t>
+  </si>
+  <si>
+    <t>Images\6_2.jpg</t>
+  </si>
+  <si>
+    <t>Images\6_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left </t>
+  </si>
+  <si>
+    <t xml:space="preserve">right </t>
+  </si>
+  <si>
+    <t>Images\7_1.jpg</t>
+  </si>
+  <si>
+    <t>Images\7_2.jpg</t>
+  </si>
+  <si>
+    <t>Images\8_1.jpg</t>
+  </si>
+  <si>
+    <t>Images\9_1.jpg</t>
+  </si>
+  <si>
+    <t>Images\9_2.jpg</t>
+  </si>
+  <si>
+    <t>Images\5_2.jpg</t>
+  </si>
+  <si>
+    <t>Images\10_1.jpg</t>
+  </si>
+  <si>
+    <t>Images\10_2.jpg</t>
+  </si>
+  <si>
+    <t>Images\11_1.jpg</t>
+  </si>
+  <si>
+    <t>Images\8_2.jpg</t>
+  </si>
+  <si>
+    <t>Images\12_1.jpg</t>
+  </si>
+  <si>
+    <t>Images\13_1.jpg</t>
+  </si>
+  <si>
+    <t>Images\11_2.jpg</t>
+  </si>
+  <si>
+    <t>Images\12_2.jpg</t>
+  </si>
+  <si>
+    <t>Images\13_2.jpg</t>
   </si>
 </sst>
 </file>
@@ -435,19 +490,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC5E200-F51D-4D61-964C-4B49EFF78603}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -475,7 +530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -489,7 +544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -503,7 +558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -517,7 +572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -531,7 +586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -543,6 +598,216 @@
       </c>
       <c r="D7" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
